--- a/biology/Neurosciences/Hypothèse_du_compromis_cognitif/Hypothèse_du_compromis_cognitif.xlsx
+++ b/biology/Neurosciences/Hypothèse_du_compromis_cognitif/Hypothèse_du_compromis_cognitif.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hypoth%C3%A8se_du_compromis_cognitif</t>
+          <t>Hypothèse_du_compromis_cognitif</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hypothèse du compromis cognitif est une théorie issue de la primatologie qui considère que l'évolution du cerveau humain, qui lui a notamment permis de développer des capacités d'abstraction ainsi que le langage, n'a été rendue possible que par le sacrifice d'autres fonctions cognitives telles que la mémoire à court terme, plus performante chez d'autres hominidés comme le chimpanzé.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hypoth%C3%A8se_du_compromis_cognitif</t>
+          <t>Hypothèse_du_compromis_cognitif</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette hypothèse a été notamment formulée par le primatologue japonais Tetsurō Matsuzawa[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette hypothèse a été notamment formulée par le primatologue japonais Tetsurō Matsuzawa.
 </t>
         </is>
       </c>
